--- a/Test Data/Verify AC Calculation.xlsx
+++ b/Test Data/Verify AC Calculation.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdhakaa\Documents\NG Consys Project\Testing\NGConsys Automation\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Shared\Scripts\work_06_12_2019_latest\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8A3E8C-27B5-49E7-B8EB-9217DC8B15F5}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" xr2:uid="{5F9B1D8F-A592-471A-9D92-51420CE42E75}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="1" r:id="rId1"/>
     <sheet name="Delete Devices" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>Devices</t>
   </si>
@@ -103,12 +102,18 @@
   </si>
   <si>
     <t>NGC-989,990</t>
+  </si>
+  <si>
+    <t>ACUnitsLoadingDetails</t>
+  </si>
+  <si>
+    <t>Signal (AC Units)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -159,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,11 +187,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -203,6 +219,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,22 +533,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49A24293-F70A-4995-9BCB-4B9F158735B3}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -539,7 +556,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -551,7 +568,7 @@
       </c>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -563,7 +580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -575,13 +592,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -594,8 +611,11 @@
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -608,8 +628,11 @@
       <c r="D8" s="1">
         <v>250</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -621,7 +644,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -633,7 +656,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -645,7 +668,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -668,21 +691,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED8D4C93-5585-46BF-AB21-0E409E2B068D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -690,7 +713,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -700,7 +723,7 @@
       </c>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -710,7 +733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -720,13 +743,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
       <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -734,7 +757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>

--- a/Test Data/Verify AC Calculation.xlsx
+++ b/Test Data/Verify AC Calculation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Shared\Scripts\work_06_12_2019_latest\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -164,7 +164,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -187,22 +187,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -219,7 +208,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,7 +525,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,6 +534,7 @@
     <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -611,7 +600,7 @@
       <c r="D7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -628,7 +617,7 @@
       <c r="D8" s="1">
         <v>250</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
     </row>
@@ -643,6 +632,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -655,6 +645,7 @@
         <v>2</v>
       </c>
       <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -667,6 +658,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -679,6 +671,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Test Data/Verify AC Calculation.xlsx
+++ b/Test Data/Verify AC Calculation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\work\consys-uiauto\Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="1" r:id="rId1"/>
@@ -528,16 +528,16 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -545,7 +545,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -557,7 +557,7 @@
       </c>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -569,7 +569,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -581,13 +581,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
       <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -604,7 +604,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -621,7 +621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -634,7 +634,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -647,7 +647,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -660,7 +660,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -691,14 +691,14 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -706,7 +706,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -716,7 +716,7 @@
       </c>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -726,7 +726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -736,13 +736,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
       <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>0</v>
       </c>
@@ -750,7 +750,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>

--- a/Test Data/Verify AC Calculation.xlsx
+++ b/Test Data/Verify AC Calculation.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{205E1521-269A-40E1-AAB7-D441FCE555E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Add Devices" sheetId="1" r:id="rId1"/>
@@ -20,17 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>Devices</t>
   </si>
@@ -108,12 +104,24 @@
   </si>
   <si>
     <t>Signal (AC Units)</t>
+  </si>
+  <si>
+    <t>Built-in Loop-A</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>Column Number</t>
+  </si>
+  <si>
+    <t>Built-in Loop-B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -521,11 +529,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -535,9 +543,11 @@
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>13</v>
       </c>
@@ -545,7 +555,7 @@
       <c r="C1" s="8"/>
       <c r="D1" s="8"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -557,7 +567,7 @@
       </c>
       <c r="D2" s="9"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
@@ -569,7 +579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -581,13 +591,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
       <c r="D5" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -603,8 +613,14 @@
       <c r="E7" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -620,8 +636,14 @@
       <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -633,8 +655,11 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
@@ -647,7 +672,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
@@ -660,7 +685,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -684,7 +709,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
